--- a/report/html/report.xlsx
+++ b/report/html/report.xlsx
@@ -47,7 +47,7 @@
     <t>Total Duration</t>
   </si>
   <si>
-    <t>00:00:01.580</t>
+    <t>00:00:00.880</t>
   </si>
   <si>
     <t>{"value":"Custom Data","font":{"bold":true}}</t>

--- a/report/html/report.xlsx
+++ b/report/html/report.xlsx
@@ -47,7 +47,7 @@
     <t>Total Duration</t>
   </si>
   <si>
-    <t>00:00:00.880</t>
+    <t>00:00:02.426</t>
   </si>
   <si>
     <t>{"value":"Custom Data","font":{"bold":true}}</t>
